--- a/Orangehrm/testData.xlsx
+++ b/Orangehrm/testData.xlsx
@@ -4,13 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15210" windowHeight="4095" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15210" windowHeight="4095" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="logindetails" sheetId="4" r:id="rId1"/>
     <sheet name="assignleave" sheetId="2" r:id="rId2"/>
     <sheet name="pim" sheetId="3" r:id="rId3"/>
     <sheet name="Admin" sheetId="5" r:id="rId4"/>
+    <sheet name="PIMEmployee" sheetId="6" r:id="rId5"/>
+    <sheet name="PIMReport" sheetId="7" r:id="rId6"/>
+    <sheet name="PIMSearchEmp" sheetId="8" r:id="rId7"/>
+    <sheet name="PIMSearchReport" sheetId="9" r:id="rId8"/>
+    <sheet name="Leaveconfig" sheetId="10" r:id="rId9"/>
+    <sheet name="LeaveEntitlement" sheetId="11" r:id="rId10"/>
+    <sheet name="LeaveList" sheetId="12" r:id="rId11"/>
+    <sheet name="LeaveReport" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -22,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Admin</t>
   </si>
@@ -112,6 +120,75 @@
   </si>
   <si>
     <t>Uname</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>EmpId</t>
+  </si>
+  <si>
+    <t>Uploadphoto</t>
+  </si>
+  <si>
+    <t>Mahesg</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
+    <t>reddy</t>
+  </si>
+  <si>
+    <t>0034</t>
+  </si>
+  <si>
+    <t>image1 (1)</t>
+  </si>
+  <si>
+    <t>ReportName</t>
+  </si>
+  <si>
+    <t>Chaitanya</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>RepName</t>
+  </si>
+  <si>
+    <t>PIM Sample Report</t>
+  </si>
+  <si>
+    <t>LeaveTypeName</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>LeaveEmp</t>
+  </si>
+  <si>
+    <t>LeaveType</t>
+  </si>
+  <si>
+    <t>Entitlement</t>
+  </si>
+  <si>
+    <t>Generatefor</t>
+  </si>
+  <si>
+    <t>Leave Type</t>
+  </si>
+  <si>
+    <t>0002</t>
   </si>
 </sst>
 </file>
@@ -146,13 +223,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,6 +566,105 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
@@ -592,7 +769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -657,4 +834,173 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>